--- a/data/trans_bre/P1801_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1801_2016_2023-Provincia-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>4.943825488589831</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.581207578875548</v>
+        <v>7.581207578875537</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.1019147328596577</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1192589915809198</v>
+        <v>0.1192589915809196</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.723407870994531</v>
+        <v>-3.432785273245811</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03818918683807052</v>
+        <v>0.712231772973708</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.0688180099256103</v>
+        <v>-0.06640472004912763</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.003197839775697364</v>
+        <v>0.009507715618361079</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.03155288806724</v>
+        <v>13.49856263521944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.56602698624161</v>
+        <v>14.59453127873632</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.2992206564362661</v>
+        <v>0.3105575323392595</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2505446258776537</v>
+        <v>0.2464151141885884</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>11.0646494974326</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.460642172012025</v>
+        <v>4.46064217201203</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2368047059096548</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1778030132339052</v>
+        <v>0.1778030132339055</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.443043875376278</v>
+        <v>4.586283970531587</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.353882620507633</v>
+        <v>-1.2773363794039</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.08802440197526283</v>
+        <v>0.0931006572919004</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04708096554007819</v>
+        <v>-0.04229131080905162</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.17677749062269</v>
+        <v>16.95207235445852</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.683115646362209</v>
+        <v>10.00144586610725</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4020866615431181</v>
+        <v>0.3913244410102951</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4513342111087928</v>
+        <v>0.4584399156455556</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>12.73471175873956</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.306247730358136</v>
+        <v>3.306247730358125</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.2973886254748132</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.05087019938441127</v>
+        <v>0.05087019938441109</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.231731191060223</v>
+        <v>4.749759946825749</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.753112154244724</v>
+        <v>-4.174654263156609</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1178343040484893</v>
+        <v>0.0994780333810366</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.05514033900708783</v>
+        <v>-0.05966260866975824</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.13531115259742</v>
+        <v>20.62765919923339</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.701839300288801</v>
+        <v>9.552974905416011</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.5263768565031897</v>
+        <v>0.5326703639276688</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1591161798846013</v>
+        <v>0.1557913584964847</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>6.402210437951961</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.866207845878522</v>
+        <v>3.866207845878533</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.1159827633419795</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.07772806633811336</v>
+        <v>0.07772806633811359</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.006379897674338</v>
+        <v>-1.416117615884196</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.918810396932585</v>
+        <v>-4.472042427354904</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01748600546142827</v>
+        <v>-0.02343120928011736</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0690889882131486</v>
+        <v>-0.08001357103007768</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.31064141755429</v>
+        <v>13.20001021330445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.77989002118191</v>
+        <v>12.44416249072522</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2812238210352452</v>
+        <v>0.2597450937301808</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2991929538815955</v>
+        <v>0.288549927400146</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>8.625944640903871</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>10.65963111655619</v>
+        <v>10.65963111655618</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.1877456716836776</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.1902138553786545</v>
+        <v>0.1902138553786543</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1897179439833333</v>
+        <v>-1.995404381171574</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.170774728262657</v>
+        <v>3.11490519673294</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.004771410231973851</v>
+        <v>-0.03774373773398711</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.03583940810129085</v>
+        <v>0.05062077129639155</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.72937123821848</v>
+        <v>17.41192610118737</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.70036047507788</v>
+        <v>18.85827664406292</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.4234225038906215</v>
+        <v>0.421349134501907</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.3696904399589991</v>
+        <v>0.3696564410641985</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.681295581611494</v>
+        <v>-1.053136257597858</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.087500442439898</v>
+        <v>1.150060222410334</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03011429307226766</v>
+        <v>-0.01872533779105915</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03252837746744634</v>
+        <v>0.01926780411607519</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.25717453580648</v>
+        <v>15.9452061872587</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.56922322418769</v>
+        <v>15.77066467163774</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3441494072177004</v>
+        <v>0.3316892597956885</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.303004353754416</v>
+        <v>0.2847066331614675</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>13.6418859027292</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>11.17651958498028</v>
+        <v>11.17651958498029</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.3841774627391341</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.1877477401789672</v>
+        <v>0.1877477401789674</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.316882503000837</v>
+        <v>8.13471946620543</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.501908317771234</v>
+        <v>5.469652787205753</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.2162362425246643</v>
+        <v>0.2096619292648216</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.08815483894150163</v>
+        <v>0.08412994857899556</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.05084522185717</v>
+        <v>18.92795217406701</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.27488590392765</v>
+        <v>16.56697269079337</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.5857112554407418</v>
+        <v>0.5764588443876305</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.2919237590474014</v>
+        <v>0.29790180485928</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>12.59120200847244</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>9.910827042856212</v>
+        <v>9.910827042856207</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.2498192217886476</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.3031978004184825</v>
+        <v>0.3031978004184824</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.574927982397559</v>
+        <v>7.518861481995732</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.445186402241302</v>
+        <v>5.483658101894917</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1421885525471321</v>
+        <v>0.1403311770391438</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1519484721612686</v>
+        <v>0.1564702118672502</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.76586224130536</v>
+        <v>17.62598657205621</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>14.74755261981544</v>
+        <v>15.06651608047625</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3739469611218752</v>
+        <v>0.3645311337748766</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4864028262340284</v>
+        <v>0.5047604696900121</v>
       </c>
     </row>
     <row r="28">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.046371779820905</v>
+        <v>8.121565677115958</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.766542746174163</v>
+        <v>5.733761158631114</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.1687656528516653</v>
+        <v>0.1703350372045145</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.1157287675067365</v>
+        <v>0.1170498414588942</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.85538048195863</v>
+        <v>13.06231911677585</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.55165336813788</v>
+        <v>10.49943486546054</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.2850514896338703</v>
+        <v>0.2887822451877114</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.2258285023514287</v>
+        <v>0.2270261140538612</v>
       </c>
     </row>
     <row r="31">
